--- a/Resources/DataLists/GroupedCategories.xlsx
+++ b/Resources/DataLists/GroupedCategories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Pictures\Python\PMV_Generator_Git\Resources\DataLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Main\PycharmProjects\PMV_Generator_Git\Resources\DataLists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD06F0F-3EAA-4319-90B5-644B0B8F5419}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2B326-4732-465C-A204-6E0FC733FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category Groupings" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Category Groupings'!$A$1:$BE$112</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Channel Groupings'!$A$1:$EU$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">SearchTitleTags!$A$1:$A$655</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">SearchTitleTags!$A$1:$A$654</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Sheet4!$A$1:$A$30</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="0">'Category Groupings'!$A$1:$BE$80</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="1">SearchTitleTags!$A$1:$A$506</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">SearchTitleTags!$A$1:$A$476</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="1">SearchTitleTags!$A$1:$A$505</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="1">SearchTitleTags!$A$1:$A$475</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="1">SearchTitleTags!$A$1:$A$149</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="1">SearchTitleTags!$A$1:$A$326</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="2039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="2039">
   <si>
     <t>Group</t>
   </si>
@@ -6605,9 +6605,9 @@
       <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -6829,7 +6829,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>104</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>112</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>143</v>
       </c>
@@ -7147,7 +7147,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
@@ -7158,7 +7158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>147</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>151</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>153</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>163</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>170</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>198</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>204</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>216</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>218</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>221</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>223</v>
       </c>
@@ -7489,7 +7489,7 @@
       <c r="L23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>226</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>234</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>239</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>246</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>110</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>270</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>190</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>295</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>302</v>
       </c>
@@ -7801,7 +7801,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>304</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>314</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>317</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>323</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>329</v>
       </c>
@@ -7901,7 +7901,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>337</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>344</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>346</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>348</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>357</v>
       </c>
@@ -8030,7 +8030,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>360</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>361</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>367</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>377</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>268</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>381</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>400</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>403</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>405</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>410</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>413</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>416</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>419</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>108</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>423</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>425</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>437</v>
       </c>
@@ -8530,7 +8530,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>444</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>448</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>454</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>459</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>462</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>464</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>469</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>473</v>
       </c>
@@ -8673,7 +8673,7 @@
       <c r="E69" s="1"/>
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>477</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>480</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>111</v>
       </c>
@@ -8836,7 +8836,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>491</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>496</v>
       </c>
@@ -8930,7 +8930,7 @@
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>499</v>
       </c>
@@ -8957,7 +8957,7 @@
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>504</v>
       </c>
@@ -8981,7 +8981,7 @@
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>508</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>518</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>526</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>528</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>530</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>541</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>463</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>547</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>553</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>557</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>563</v>
       </c>
@@ -9205,7 +9205,7 @@
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>565</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>572</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>72</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>577</v>
       </c>
@@ -9285,7 +9285,7 @@
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>579</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>585</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>468</v>
       </c>
@@ -9375,7 +9375,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>467</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>605</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>607</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>611</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>616</v>
       </c>
@@ -9452,7 +9452,7 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>618</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>622</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>312</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>636</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>639</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>646</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>650</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>459</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>655</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>508</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>656</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>661</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>663</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>666</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>668</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>670</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>672</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>644</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
@@ -9751,7 +9751,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>684</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>688</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>690</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>694</v>
       </c>
@@ -9798,7 +9798,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>697</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>707</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>658</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>657</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>659</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>714</v>
       </c>
@@ -9915,7 +9915,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>716</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>721</v>
       </c>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>723</v>
       </c>
@@ -9964,7 +9964,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>724</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>727</v>
       </c>
@@ -9989,12 +9989,12 @@
         <v>730</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>732</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>736</v>
       </c>
@@ -10016,7 +10016,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>737</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>738</v>
       </c>
@@ -10032,7 +10032,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>740</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>741</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>744</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>748</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>751</v>
       </c>
@@ -10111,7 +10111,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>754</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>755</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>758</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>760</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>761</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>763</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>771</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>773</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>778</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>362</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>783</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>785</v>
       </c>
@@ -10291,7 +10291,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>788</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="C157" s="1"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>442</v>
       </c>
@@ -10311,7 +10311,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>792</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>793</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>795</v>
       </c>
@@ -10353,7 +10353,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>802</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>805</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>810</v>
       </c>
@@ -10401,7 +10401,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>816</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>817</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>819</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>821</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>825</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>830</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>834</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>835</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>837</v>
       </c>
@@ -10527,7 +10527,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>844</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>846</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>850</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>853</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>856</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>860</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>862</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>866</v>
       </c>
@@ -10630,7 +10630,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>870</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>872</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>875</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>877</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>882</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>884</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>886</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>894</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>896</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>591</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>898</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>906</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>910</v>
       </c>
@@ -10813,3596 +10813,3591 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A717"/>
+  <dimension ref="A1:A716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A688" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D702" sqref="D702"/>
+    <sheetView tabSelected="1" topLeftCell="A672" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A716" sqref="A716"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A717" s="1" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -14425,1054 +14420,1054 @@
       <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1172</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1175</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1178</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1183</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1187</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1190</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1192</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>1201</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1203</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>1204</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>1221</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>1223</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1231</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>1237</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>1245</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>1252</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>1293</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>1138</v>
       </c>
@@ -15495,14 +15490,14 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="65" max="151" width="11.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="65" max="151" width="11.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15957,7 +15952,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1435</v>
       </c>
@@ -15992,7 +15987,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="3" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1446</v>
       </c>
@@ -16069,7 +16064,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="4" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1471</v>
       </c>
@@ -16092,7 +16087,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1478</v>
       </c>
@@ -16121,7 +16116,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="6" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1487</v>
       </c>
@@ -16141,7 +16136,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="7" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1493</v>
       </c>
@@ -16188,7 +16183,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="8" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1508</v>
       </c>
@@ -16286,7 +16281,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="9" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1540</v>
       </c>
@@ -16300,7 +16295,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="10" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1543</v>
       </c>
@@ -16329,7 +16324,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="11" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1552</v>
       </c>
@@ -16340,7 +16335,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="12" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>1555</v>
       </c>
@@ -16357,7 +16352,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="13" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>1560</v>
       </c>
@@ -16386,7 +16381,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="14" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1569</v>
       </c>
@@ -16397,7 +16392,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="15" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>1572</v>
       </c>
@@ -16438,7 +16433,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="16" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>1584</v>
       </c>
@@ -16452,7 +16447,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1588</v>
       </c>
@@ -16463,7 +16458,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>1591</v>
       </c>
@@ -16489,7 +16484,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>1599</v>
       </c>
@@ -16521,7 +16516,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1609</v>
       </c>
@@ -16556,7 +16551,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1620</v>
       </c>
@@ -16573,7 +16568,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1625</v>
       </c>
@@ -16587,7 +16582,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>1629</v>
       </c>
@@ -16598,7 +16593,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>1632</v>
       </c>
@@ -16657,7 +16652,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>1651</v>
       </c>
@@ -16677,7 +16672,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>1657</v>
       </c>
@@ -16706,7 +16701,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1666</v>
       </c>
@@ -16741,7 +16736,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>1677</v>
       </c>
@@ -16824,7 +16819,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1703</v>
       </c>
@@ -16838,7 +16833,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1707</v>
       </c>
@@ -16855,7 +16850,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>1712</v>
       </c>
@@ -16926,7 +16921,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>1735</v>
       </c>
@@ -17024,7 +17019,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>1766</v>
       </c>
@@ -17044,7 +17039,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>1772</v>
       </c>
@@ -17061,7 +17056,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>1777</v>
       </c>
@@ -17210,7 +17205,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>1826</v>
       </c>
@@ -17284,7 +17279,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1850</v>
       </c>
@@ -17388,7 +17383,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1884</v>
       </c>
@@ -17435,7 +17430,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>1899</v>
       </c>
@@ -17488,7 +17483,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1915</v>
       </c>
@@ -17538,7 +17533,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>1931</v>
       </c>
@@ -17558,7 +17553,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1937</v>
       </c>
@@ -17623,7 +17618,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1958</v>
       </c>
@@ -17634,7 +17629,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1961</v>
       </c>
@@ -17669,7 +17664,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1972</v>
       </c>
@@ -17680,7 +17675,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1975</v>
       </c>
@@ -17691,7 +17686,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1978</v>
       </c>
@@ -17699,7 +17694,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1980</v>
       </c>
@@ -17782,7 +17777,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2007</v>
       </c>
@@ -17802,7 +17797,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>2013</v>
       </c>
@@ -17825,7 +17820,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>2020</v>
       </c>
@@ -17842,7 +17837,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2024</v>
       </c>
@@ -17853,7 +17848,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>2027</v>
       </c>
@@ -17907,94 +17902,94 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2028</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2029</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
   </sheetData>
